--- a/Pretest/Initial list of activities.xlsx
+++ b/Pretest/Initial list of activities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmnknmnn/Dropbox/Rhodes &amp; Neumann/Rhodes - Summer research funding/FOMO and Opportunity cost/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmnknmnn/Dropbox/Rhodes &amp; Neumann/Rhodes - Summer research funding/FOMO and Opportunity cost/Pretest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B90466C-9B0B-F644-8420-877E865FA5F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E277453F-4CC1-754F-90F9-BE40402AF3FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32000" yWindow="4060" windowWidth="32000" windowHeight="17540" xr2:uid="{4263094D-2FC2-3647-9156-58F7C8176E5C}"/>
+    <workbookView xWindow="14420" yWindow="460" windowWidth="14380" windowHeight="16600" xr2:uid="{4263094D-2FC2-3647-9156-58F7C8176E5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="105">
   <si>
     <t>Activity (Alone)</t>
   </si>
@@ -224,9 +224,6 @@
     <t>Weekend getaway to a hotel by the beach with an all drinks package</t>
   </si>
   <si>
-    <t>Weekend getaway to a hotel by the beach with an all drinks package for you and your best friends</t>
-  </si>
-  <si>
     <t>Swim with dolphins at an aquarium</t>
   </si>
   <si>
@@ -348,6 +345,9 @@
   </si>
   <si>
     <t>Have dinner with your favorite celebrity and your best friends in a five-star restaurant</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -402,7 +402,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -463,11 +463,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -481,6 +494,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -795,449 +811,611 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1BC751-2CBE-EA44-8A2E-23234740ACB0}">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B54"/>
+    <sheetView tabSelected="1" topLeftCell="C20" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="79.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="101.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="79.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="101.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="2" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="2" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="C2" s="8"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="C5" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="10">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="10">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="10">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="10">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="C11" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="10">
         <v>10</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B12" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="10">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="10">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="10">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="C15" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="10">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="5" t="s">
+      <c r="C16" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="10">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="10">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" s="5" t="s">
+      <c r="C18" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="10">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="10">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="10">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="10">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="10">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="10">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="10">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="10">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="10">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="10">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="10">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="10">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="10">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="10">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="10">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="10">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="10">
+        <v>33</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="10">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="10">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="10">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="10">
+        <v>37</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="10">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="10">
+        <v>39</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="10">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="10">
+        <v>41</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="5" t="s">
+      <c r="C43" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="10">
         <v>42</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
+      <c r="B44" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="10">
         <v>43</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B45" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="10">
         <v>44</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
+      <c r="B46" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="10">
         <v>45</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B47" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="10">
         <v>46</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
+      <c r="B48" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="10">
         <v>47</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B49" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="10">
         <v>48</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
+      <c r="B50" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="10">
         <v>49</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B51" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="10">
         <v>50</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
+      <c r="B52" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="10">
         <v>51</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B53" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="11">
         <v>52</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B53" s="5" t="s">
+      <c r="B54" s="4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
+      <c r="C54" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B54" s="6" t="s">
-        <v>67</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
+    <mergeCell ref="C1:C2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
   </mergeCells>
